--- a/biology/Médecine/Maladie_professionnelle_due_au_chrome/Maladie_professionnelle_due_au_chrome.xlsx
+++ b/biology/Médecine/Maladie_professionnelle_due_au_chrome/Maladie_professionnelle_due_au_chrome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'intoxication au chrome est reconnue comme maladie professionnelle en France dans certains cas. Il peut être responsable de cancers.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical.
@@ -514,12 +526,125 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Régime agricole
-Affection respiratoire
-Affection cancéreuse
-Données professionnelles
-Données médicales</t>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maladie_professionnelle_due_au_chrome</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_professionnelle_due_au_chrome</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maladie_professionnelle_due_au_chrome</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_professionnelle_due_au_chrome</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Affection respiratoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maladie_professionnelle_due_au_chrome</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_professionnelle_due_au_chrome</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Affection cancéreuse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
